--- a/inst/extdata/MassWateR_Sites_Template.xlsx
+++ b/inst/extdata/MassWateR_Sites_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\1 ACASAK\MassWateR\Design\Templates for users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF73AA3-2E4C-4034-A016-4B98A3CA67FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0C3142-D0A7-4CEE-88CF-888DF7D6A655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C1F24EB6-C017-4D3B-9E45-481AAAEF6BC3}"/>
   </bookViews>
@@ -134,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,14 +142,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,7 +485,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,20 +496,20 @@
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
